--- a/examples/Demo_Beta/Lista_IO.xlsx
+++ b/examples/Demo_Beta/Lista_IO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Documents\Makers\Smart_Node_Pressure_Washer_Lance_for_Istobal\examples\Demo_beta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrés\Documents\GitHub\Smart_Node_Pressure_Washer_Lance_for_Istobal\examples\Demo_Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4952D58-5FCF-4A6E-94B0-0D60DD80A066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228B033C-F87B-49A8-924F-36DED4C120D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nano Every" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
-  <si>
-    <t>Arduino estacion:</t>
-  </si>
-  <si>
-    <t>Arduino lanza:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>Pin:</t>
   </si>
@@ -111,12 +105,6 @@
     <t>A0</t>
   </si>
   <si>
-    <t>SDA</t>
-  </si>
-  <si>
-    <t>SCL</t>
-  </si>
-  <si>
     <t>MISO</t>
   </si>
   <si>
@@ -159,35 +147,74 @@
     <t>C-CSN</t>
   </si>
   <si>
-    <t>S-INT</t>
-  </si>
-  <si>
     <t>P-RST</t>
   </si>
   <si>
-    <t>P-DC</t>
-  </si>
-  <si>
     <t>UART</t>
   </si>
   <si>
-    <t>SWCarga</t>
-  </si>
-  <si>
-    <t>P-CS</t>
-  </si>
-  <si>
-    <t>SWDOWN</t>
-  </si>
-  <si>
-    <t>SWUP</t>
+    <t>Arduino estacion(Micro):</t>
+  </si>
+  <si>
+    <t>Arduino lanza(Every):</t>
+  </si>
+  <si>
+    <t>P-CCS</t>
+  </si>
+  <si>
+    <t>P-TCS</t>
+  </si>
+  <si>
+    <t>P-D/C</t>
+  </si>
+  <si>
+    <t>S-SCL</t>
+  </si>
+  <si>
+    <t>S-SDA</t>
+  </si>
+  <si>
+    <t>Vs Bateria</t>
+  </si>
+  <si>
+    <t>Reserva</t>
+  </si>
+  <si>
+    <t>Habilitar</t>
+  </si>
+  <si>
+    <t>Bit1</t>
+  </si>
+  <si>
+    <t>Bit2</t>
+  </si>
+  <si>
+    <t>Bit0</t>
+  </si>
+  <si>
+    <t>Entradas PLC</t>
+  </si>
+  <si>
+    <t>I0.0</t>
+  </si>
+  <si>
+    <t>I0.1</t>
+  </si>
+  <si>
+    <t>I0.2</t>
+  </si>
+  <si>
+    <t>I0.3</t>
+  </si>
+  <si>
+    <t>I0.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +260,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -264,11 +299,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -280,6 +314,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -319,15 +359,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>153829</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>287655</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>10001</xdr:rowOff>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -355,7 +395,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4530090" y="153829"/>
+          <a:off x="4575810" y="1418749"/>
           <a:ext cx="8963025" cy="4481512"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -663,351 +703,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
       <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="7" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
         <v>50</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
+      <c r="F27" s="7"/>
+      <c r="G27" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1016,10 +1077,10 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="F22:F23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F23:F27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
